--- a/sofaplayer/Bundesliga/VfL Wolfsburg_stats.xlsx
+++ b/sofaplayer/Bundesliga/VfL Wolfsburg_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>1107591</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8166666666667</v>
+        <v>6.8421052631579</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1209</v>
+        <v>1292</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.997</v>
+        <v>7.1693</v>
       </c>
       <c r="L2" t="n">
-        <v>172.71428571429</v>
+        <v>161.5</v>
       </c>
       <c r="M2" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>16.666666666667</v>
+        <v>17.391304347826</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1101,40 +1101,40 @@
         <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.4291607</v>
+        <v>1.4695405</v>
       </c>
       <c r="AB2" t="n">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.12925170068</v>
+        <v>73.397435897436</v>
       </c>
       <c r="AG2" t="n">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="AH2" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="n">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>66.666666666667</v>
+        <v>68.75</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -1152,13 +1152,13 @@
         <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
         <v>6</v>
@@ -1179,25 +1179,25 @@
         <v>31.034482758621</v>
       </c>
       <c r="BA2" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BB2" t="n">
-        <v>38.364779874214</v>
+        <v>37.575757575758</v>
       </c>
       <c r="BC2" t="n">
         <v>46</v>
       </c>
       <c r="BD2" t="n">
-        <v>40.70796460177</v>
+        <v>39.655172413793</v>
       </c>
       <c r="BE2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF2" t="n">
-        <v>32.608695652174</v>
+        <v>32.65306122449</v>
       </c>
       <c r="BG2" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="BH2" t="n">
         <v>15</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>122.7</v>
+        <v>130</v>
       </c>
       <c r="BR2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BT2" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CA2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="CB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC2" t="n">
         <v>13</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS2" t="n">
         <v>29</v>
@@ -1317,10 +1317,10 @@
         <v>19</v>
       </c>
       <c r="CU2" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="CV2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DA2" t="n">
         <v>14</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="DG2" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1740,341 +1740,341 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Dženan Pejčinović</t>
+          <t>Kento Shiogai</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1127790</v>
+        <v>1499696</v>
       </c>
       <c r="E4" t="n">
-        <v>6.7647058823529</v>
+        <v>6.325</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>183</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2814</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02104941</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" t="n">
-        <v>809</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BA4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
-        <v>4.4207</v>
-      </c>
-      <c r="L4" t="n">
-        <v>161.8</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="BB4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>21.739130434783</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="BR4" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>19.230769230769</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.1989139</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>286</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>114</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>68.263473053892</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>167</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>61</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>53</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY4" t="n">
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
         <v>3</v>
       </c>
-      <c r="AZ4" t="n">
-        <v>27.272727272727</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>49</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>43.362831858407</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>43.243243243243</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>33</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>43.421052631579</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>94</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>115</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>17</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>53</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>20</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="n">
         <v>10</v>
       </c>
-      <c r="BW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>6</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>11</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>64</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>43</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>8</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>6</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>75</v>
-      </c>
       <c r="DG4" t="n">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2163036</v>
+        <v>2607722</v>
       </c>
       <c r="DK4" t="inlineStr">
         <is>
@@ -2096,317 +2096,317 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kento Shiogai</t>
+          <t>Dženan Pejčinović</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1499696</v>
+        <v>1127790</v>
       </c>
       <c r="E5" t="n">
-        <v>6.3666666666667</v>
+        <v>6.7611111111111</v>
       </c>
       <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>823</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.4207</v>
+      </c>
+      <c r="L5" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>26</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>19.230769230769</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.19975868</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>292</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>116</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>68.235294117647</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>54</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>123</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2814</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.0170763</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH5" t="n">
+      <c r="AZ5" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>43.478260869565</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>44.736842105263</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>33</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>95</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>27</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>54</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>24</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>4</v>
       </c>
-      <c r="AI5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="CS5" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>65</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>44</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="DA5" t="n">
         <v>7</v>
       </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>21.428571428571</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>11</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>1</v>
-      </c>
       <c r="DB5" t="n">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="DG5" t="n">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ5" t="n">
-        <v>2607722</v>
+        <v>2163036</v>
       </c>
       <c r="DK5" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
         <v>1180758</v>
       </c>
       <c r="E6" t="n">
-        <v>6.7066666666667</v>
+        <v>6.69375</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
-        <v>790</v>
+        <v>879</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2477,13 +2477,13 @@
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.2469</v>
+        <v>1.3041</v>
       </c>
       <c r="L6" t="n">
-        <v>395</v>
+        <v>439.5</v>
       </c>
       <c r="M6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>12.5</v>
+        <v>11.764705882353</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2522,49 +2522,49 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.88684959</v>
+        <v>2.00566359</v>
       </c>
       <c r="AB6" t="n">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="AC6" t="n">
         <v>4</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AF6" t="n">
-        <v>65.400843881857</v>
+        <v>65.42750929368</v>
       </c>
       <c r="AG6" t="n">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="AH6" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="AJ6" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>15.789473684211</v>
+        <v>15</v>
       </c>
       <c r="AM6" t="n">
         <v>2</v>
       </c>
       <c r="AN6" t="n">
-        <v>16.666666666667</v>
+        <v>15.384615384615</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -2573,61 +2573,61 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
         <v>6</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>21.739130434783</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BA6" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB6" t="n">
-        <v>44.545454545455</v>
+        <v>42.97520661157</v>
       </c>
       <c r="BC6" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD6" t="n">
-        <v>42.528735632184</v>
+        <v>40.20618556701</v>
       </c>
       <c r="BE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BF6" t="n">
-        <v>52.173913043478</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BG6" t="n">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="BH6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BJ6" t="n">
         <v>2</v>
@@ -2645,22 +2645,22 @@
         <v>1</v>
       </c>
       <c r="BO6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>100.6</v>
+        <v>107.1</v>
       </c>
       <c r="BR6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT6" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>13</v>
       </c>
       <c r="CA6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CD6" t="n">
         <v>6</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS6" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="CT6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU6" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="CV6" t="n">
         <v>11</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DA6" t="n">
         <v>11</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="DG6" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>105734</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7166666666667</v>
+        <v>6.7105263157895</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>1305</v>
+        <v>1395</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2833,22 +2833,22 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3945</v>
+        <v>2.4459</v>
       </c>
       <c r="L7" t="n">
-        <v>1305</v>
+        <v>1395</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.5454545454545</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -2881,10 +2881,10 @@
         <v>4</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.81906763</v>
+        <v>2.83753923</v>
       </c>
       <c r="AB7" t="n">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="AC7" t="n">
         <v>5</v>
@@ -2893,28 +2893,28 @@
         <v>29</v>
       </c>
       <c r="AE7" t="n">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="AF7" t="n">
-        <v>78.980891719745</v>
+        <v>78.59281437125701</v>
       </c>
       <c r="AG7" t="n">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="AH7" t="n">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AI7" t="n">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="AJ7" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>42.647058823529</v>
+        <v>41.666666666667</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
@@ -2923,28 +2923,28 @@
         <v>31.914893617021</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AS7" t="n">
         <v>14</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
         <v>6</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -2959,25 +2959,25 @@
         <v>40</v>
       </c>
       <c r="BA7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BB7" t="n">
-        <v>38.636363636364</v>
+        <v>39.56043956044</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD7" t="n">
-        <v>36.619718309859</v>
+        <v>38.356164383562</v>
       </c>
       <c r="BE7" t="n">
         <v>8</v>
       </c>
       <c r="BF7" t="n">
-        <v>47.058823529412</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG7" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="BH7" t="n">
         <v>9</v>
@@ -3001,28 +3001,28 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>120.9</v>
+        <v>127.5</v>
       </c>
       <c r="BR7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS7" t="n">
         <v>5</v>
       </c>
       <c r="BT7" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BW7" t="n">
         <v>1</v>
@@ -3037,16 +3037,16 @@
         <v>7</v>
       </c>
       <c r="CA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CB7" t="n">
         <v>14</v>
       </c>
       <c r="CC7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="CD7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CK7" t="n">
         <v>1</v>
@@ -3097,10 +3097,10 @@
         <v>47</v>
       </c>
       <c r="CU7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CV7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CW7" t="n">
         <v>0</v>
@@ -3112,13 +3112,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="DA7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DB7" t="n">
-        <v>47.368421052632</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC7" t="n">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="DG7" t="n">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>841947</v>
       </c>
       <c r="E8" t="n">
-        <v>6.6833333333333</v>
+        <v>6.6578947368421</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1045</v>
+        <v>1129</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1423</v>
+        <v>2.1941</v>
       </c>
       <c r="L8" t="n">
-        <v>522.5</v>
+        <v>564.5</v>
       </c>
       <c r="M8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>10.526315789474</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,40 +3237,40 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.60106209</v>
+        <v>1.65721289</v>
       </c>
       <c r="AB8" t="n">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="AC8" t="n">
         <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="AF8" t="n">
-        <v>82.92682926829301</v>
+        <v>83.256880733945</v>
       </c>
       <c r="AG8" t="n">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="AH8" t="n">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="AI8" t="n">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AJ8" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AK8" t="n">
         <v>14</v>
       </c>
       <c r="AL8" t="n">
-        <v>63.636363636364</v>
+        <v>60.869565217391</v>
       </c>
       <c r="AM8" t="n">
         <v>5</v>
@@ -3282,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -3309,37 +3309,37 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ8" t="n">
-        <v>47.368421052632</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BA8" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BB8" t="n">
-        <v>43.44262295082</v>
+        <v>41.481481481481</v>
       </c>
       <c r="BC8" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BD8" t="n">
-        <v>45.454545454545</v>
+        <v>44.036697247706</v>
       </c>
       <c r="BE8" t="n">
         <v>8</v>
       </c>
       <c r="BF8" t="n">
-        <v>34.782608695652</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BG8" t="n">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="BH8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BJ8" t="n">
         <v>2</v>
@@ -3357,28 +3357,28 @@
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>120.3</v>
+        <v>126.5</v>
       </c>
       <c r="BR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS8" t="n">
         <v>5</v>
       </c>
       <c r="BT8" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>1</v>
       </c>
       <c r="BZ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CA8" t="n">
         <v>7</v>
       </c>
       <c r="CB8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC8" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="CD8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK8" t="n">
         <v>4</v>
@@ -3444,19 +3444,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CS8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CT8" t="n">
         <v>16</v>
       </c>
       <c r="CU8" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="CV8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DA8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DB8" t="n">
-        <v>60</v>
+        <v>61.904761904762</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="DG8" t="n">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>147289</v>
       </c>
       <c r="E13" t="n">
-        <v>7.2315789473684</v>
+        <v>7.2</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -4970,7 +4970,7 @@
         <v>0.3392</v>
       </c>
       <c r="L13" t="n">
-        <v>1710</v>
+        <v>1800</v>
       </c>
       <c r="M13" t="n">
         <v>12</v>
@@ -5015,10 +5015,10 @@
         <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.93570979</v>
+        <v>3.94274225</v>
       </c>
       <c r="AB13" t="n">
-        <v>1240</v>
+        <v>1300</v>
       </c>
       <c r="AC13" t="n">
         <v>11</v>
@@ -5027,52 +5027,52 @@
         <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>801</v>
+        <v>834</v>
       </c>
       <c r="AF13" t="n">
-        <v>84.31578947368401</v>
+        <v>84.412955465587</v>
       </c>
       <c r="AG13" t="n">
-        <v>950</v>
+        <v>988</v>
       </c>
       <c r="AH13" t="n">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="AI13" t="n">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AJ13" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AL13" t="n">
-        <v>48.051948051948</v>
+        <v>48.387096774194</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>34.246575342466</v>
+        <v>32.894736842105</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR13" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="AS13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="AU13" t="n">
         <v>3</v>
@@ -5093,31 +5093,31 @@
         <v>57.142857142857</v>
       </c>
       <c r="BA13" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BB13" t="n">
-        <v>54.205607476636</v>
+        <v>53.982300884956</v>
       </c>
       <c r="BC13" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BD13" t="n">
-        <v>55.952380952381</v>
+        <v>55.681818181818</v>
       </c>
       <c r="BE13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BF13" t="n">
-        <v>47.826086956522</v>
+        <v>48</v>
       </c>
       <c r="BG13" t="n">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BH13" t="n">
         <v>17</v>
       </c>
       <c r="BI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>1</v>
       </c>
       <c r="BO13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>137.4</v>
+        <v>144</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
         <v>5</v>
       </c>
       <c r="BT13" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5174,10 +5174,10 @@
         <v>11</v>
       </c>
       <c r="CB13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC13" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CD13" t="n">
         <v>49</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CK13" t="n">
         <v>4</v>
@@ -5228,13 +5228,13 @@
         <v>7</v>
       </c>
       <c r="CT13" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="CU13" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="CV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DA13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DB13" t="n">
-        <v>70</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="DG13" t="n">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5661,40 +5661,40 @@
         <v>796987</v>
       </c>
       <c r="E15" t="n">
-        <v>6.6222222222222</v>
+        <v>6.6631578947368</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1.751</v>
+        <v>2.0226</v>
       </c>
       <c r="L15" t="n">
-        <v>335.5</v>
+        <v>233.66666666667</v>
       </c>
       <c r="M15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>12.5</v>
+        <v>17.647058823529</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.62833782</v>
+        <v>0.63245217</v>
       </c>
       <c r="AB15" t="n">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5739,28 +5739,28 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="n">
-        <v>72.832369942197</v>
+        <v>72.316384180791</v>
       </c>
       <c r="AG15" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AH15" t="n">
         <v>52</v>
       </c>
       <c r="AI15" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
         <v>6</v>
       </c>
       <c r="AL15" t="n">
-        <v>46.153846153846</v>
+        <v>42.857142857143</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
@@ -5775,16 +5775,16 @@
         <v>8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>4</v>
@@ -5823,7 +5823,7 @@
         <v>42.857142857143</v>
       </c>
       <c r="BG15" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BH15" t="n">
         <v>14</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>119.2</v>
+        <v>126.6</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT15" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="BZ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CA15" t="n">
         <v>5</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DA15" t="n">
         <v>5</v>
@@ -5979,13 +5979,13 @@
         <v>66</v>
       </c>
       <c r="DG15" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ15" t="n">
         <v>2163042</v>
@@ -7083,16 +7083,16 @@
         <v>1184855</v>
       </c>
       <c r="E19" t="n">
-        <v>6.6611111111111</v>
+        <v>6.6526315789474</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
         <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7104,7 +7104,7 @@
         <v>2.0492</v>
       </c>
       <c r="L19" t="n">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="M19" t="n">
         <v>17</v>
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.69036441</v>
+        <v>0.6930224699999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7161,28 +7161,28 @@
         <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="AF19" t="n">
-        <v>85.81213307240699</v>
+        <v>85.686465433301</v>
       </c>
       <c r="AG19" t="n">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="AH19" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="AI19" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ19" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AK19" t="n">
         <v>54</v>
       </c>
       <c r="AL19" t="n">
-        <v>39.130434782609</v>
+        <v>38.848920863309</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -7200,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="AR19" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AS19" t="n">
         <v>5</v>
       </c>
       <c r="AT19" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -7245,7 +7245,7 @@
         <v>53.623188405797</v>
       </c>
       <c r="BG19" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BH19" t="n">
         <v>18</v>
@@ -7269,22 +7269,22 @@
         <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BP19" t="n">
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>119.9</v>
+        <v>126.4</v>
       </c>
       <c r="BR19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS19" t="n">
         <v>1</v>
       </c>
       <c r="BT19" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CK19" t="n">
         <v>2</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DA19" t="n">
         <v>11</v>
@@ -7398,16 +7398,16 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="DG19" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="DH19" t="n">
         <v>57</v>
       </c>
       <c r="DI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DJ19" t="n">
         <v>2163072</v>
@@ -7432,23 +7432,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Joakim Mæhle</t>
+          <t>Jonas Adjei Adjetey</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>842364</v>
+        <v>1218056</v>
       </c>
       <c r="E20" t="n">
-        <v>6.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>432</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7456,20 +7456,18 @@
       <c r="J20" t="n">
         <v>0</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.4034</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -7499,112 +7497,110 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.05814754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="n">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>82.105263157895</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>28.571428571429</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>9.090909090909101</v>
+        <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BB20" t="n">
-        <v>46.153846153846</v>
+        <v>0</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>40.625</v>
+        <v>0</v>
       </c>
       <c r="BE20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF20" t="n">
-        <v>71.428571428571</v>
+        <v>0</v>
       </c>
       <c r="BG20" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="BH20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI20" t="n">
         <v>0</v>
@@ -7625,28 +7621,28 @@
         <v>0</v>
       </c>
       <c r="BO20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="BR20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -7658,19 +7654,19 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CD20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7688,10 +7684,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7712,19 +7708,19 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CS20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CT20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="CU20" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="CV20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7736,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="DA20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="DB20" t="n">
-        <v>58.333333333333</v>
+        <v>0</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="DG20" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7766,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2196464</v>
+        <v>2677250</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7788,23 +7784,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jeanuël Belocian</t>
+          <t>Joakim Mæhle</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1173172</v>
+        <v>842364</v>
       </c>
       <c r="E21" t="n">
-        <v>6.5875</v>
+        <v>6.4333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7813,16 +7809,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3314</v>
+        <v>0.4034</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -7855,115 +7851,115 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2876095</v>
+        <v>1.05814754</v>
       </c>
       <c r="AB21" t="n">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="n">
-        <v>91.949152542373</v>
+        <v>82.105263157895</v>
       </c>
       <c r="AG21" t="n">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="AH21" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="n">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
         <v>10</v>
       </c>
       <c r="AL21" t="n">
-        <v>76.92307692307701</v>
+        <v>62.5</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.666666666667</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>18</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BC21" t="n">
         <v>13</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY21" t="n">
+      <c r="BD21" t="n">
+        <v>40.625</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>66</v>
+      </c>
+      <c r="BH21" t="n">
         <v>3</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>75</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>53.125</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>17</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>62.962962962963</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>36</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>6</v>
-      </c>
       <c r="BI21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -7987,22 +7983,22 @@
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>52.7</v>
+        <v>38.6</v>
       </c>
       <c r="BR21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8014,19 +8010,19 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CA21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CB21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CC21" t="n">
         <v>9</v>
       </c>
       <c r="CD21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8068,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CS21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="CT21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="CV21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,13 +8088,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DA21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="DB21" t="n">
-        <v>50</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8110,19 +8106,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="DG21" t="n">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
       </c>
       <c r="DI21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2340535</v>
+        <v>2196464</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,23 +8140,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Saël Kumbedi</t>
+          <t>Jeanuël Belocian</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1155226</v>
+        <v>1173172</v>
       </c>
       <c r="E22" t="n">
-        <v>6.3642857142857</v>
+        <v>6.5555555555556</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>985</v>
+        <v>472</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8169,19 +8165,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1045</v>
+        <v>0.3314</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8214,229 +8210,229 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.35063</v>
+        <v>0.3693159</v>
       </c>
       <c r="AB22" t="n">
-        <v>682</v>
+        <v>367</v>
       </c>
       <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
         <v>4</v>
       </c>
-      <c r="AD22" t="n">
-        <v>10</v>
-      </c>
       <c r="AE22" t="n">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="AF22" t="n">
-        <v>77.41935483871001</v>
+        <v>90.34749034748999</v>
       </c>
       <c r="AG22" t="n">
-        <v>403</v>
+        <v>259</v>
       </c>
       <c r="AH22" t="n">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="AI22" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="AJ22" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="AK22" t="n">
         <v>10</v>
       </c>
       <c r="AL22" t="n">
-        <v>27.027027027027</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AM22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AN22" t="n">
-        <v>22.727272727273</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>52.777777777778</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>62.068965517241</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>48</v>
+      </c>
+      <c r="BH22" t="n">
         <v>8</v>
       </c>
-      <c r="AP22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="BI22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>59</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
         <v>25</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC22" t="n">
         <v>11</v>
       </c>
-      <c r="AT22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
+      <c r="CD22" t="n">
         <v>9</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>39.130434782609</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>43</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>40.566037735849</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>38</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>42.696629213483</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>29.411764705882</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>159</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ22" t="n">
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
         <v>4</v>
       </c>
-      <c r="BK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>27</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>91</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>13</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>23</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>10</v>
-      </c>
       <c r="CS22" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="CT22" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="CU22" t="n">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="CV22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8448,13 +8444,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="DA22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="DB22" t="n">
-        <v>47.368421052632</v>
+        <v>44.444444444444</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="DG22" t="n">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8478,7 +8474,7 @@
         <v>3</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2375605</v>
+        <v>2340535</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,341 +8496,341 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Denis Vavro</t>
+          <t>Saël Kumbedi</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>293127</v>
+        <v>1155226</v>
       </c>
       <c r="E23" t="n">
-        <v>6.7125</v>
+        <v>6.3733333333333</v>
       </c>
       <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1075</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.1045</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1.3634353</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>745</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>332</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>76.851851851852</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>432</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>177</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>155</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>24.390243902439</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>21.739130434783</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>39.130434782609</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>43.650793650794</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>46.296296296296</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>27.777777777778</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>172</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD23" t="n">
         <v>8</v>
       </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>412</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.3464</v>
-      </c>
-      <c r="L23" t="n">
-        <v>412</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.06366117</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>133</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>81.09756097560999</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>164</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>104</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>57</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA23" t="n">
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>28</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CS23" t="n">
         <v>23</v>
       </c>
-      <c r="BB23" t="n">
-        <v>62.162162162162</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>35</v>
-      </c>
-      <c r="BH23" t="n">
+      <c r="CT23" t="n">
+        <v>23</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>71</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>13</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>17</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>60.714285714286</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>209</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>223</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI23" t="n">
         <v>3</v>
       </c>
-      <c r="BI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>8</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>31</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>8</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>9</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>14</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>24</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>75</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>114</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>50</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>5</v>
-      </c>
       <c r="DJ23" t="n">
-        <v>2469444</v>
+        <v>2375605</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,47 +8852,47 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jenson Seelt</t>
+          <t>Denis Vavro</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1088897</v>
+        <v>293127</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6777777777778</v>
+        <v>6.8111111111111</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>696</v>
+        <v>502</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2048</v>
+        <v>0.3611</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>33.333333333333</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8908,13 +8904,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -8929,61 +8925,61 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.05525575</v>
+        <v>0.08914237</v>
       </c>
       <c r="AB24" t="n">
-        <v>514</v>
+        <v>305</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
-        <v>326</v>
+        <v>166</v>
       </c>
       <c r="AF24" t="n">
-        <v>86.015831134565</v>
+        <v>82.587064676617</v>
       </c>
       <c r="AG24" t="n">
-        <v>379</v>
+        <v>201</v>
       </c>
       <c r="AH24" t="n">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="AI24" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>36.842105263158</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="n">
         <v>5</v>
       </c>
-      <c r="AP24" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ24" t="n">
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT24" t="n">
         <v>72</v>
@@ -8992,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -9001,43 +8997,43 @@
         <v>1</v>
       </c>
       <c r="AY24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ24" t="n">
-        <v>66.666666666667</v>
+        <v>100</v>
       </c>
       <c r="BA24" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="BB24" t="n">
-        <v>62.857142857143</v>
+        <v>63.414634146341</v>
       </c>
       <c r="BC24" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
-        <v>72.413793103448</v>
+        <v>50</v>
       </c>
       <c r="BE24" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="BF24" t="n">
-        <v>56.09756097561</v>
+        <v>73.913043478261</v>
       </c>
       <c r="BG24" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="BH24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ24" t="n">
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
@@ -9046,31 +9042,31 @@
         <v>0</v>
       </c>
       <c r="BN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>60.1</v>
+        <v>61.3</v>
       </c>
       <c r="BR24" t="n">
         <v>9</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
       </c>
       <c r="BV24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW24" t="n">
         <v>0</v>
@@ -9082,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="BZ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="CD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF24" t="n">
         <v>0</v>
@@ -9112,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="CK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL24" t="n">
         <v>0</v>
@@ -9136,19 +9132,19 @@
         <v>0</v>
       </c>
       <c r="CR24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CT24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU24" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="CV24" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9160,13 +9156,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="DA24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="DB24" t="n">
-        <v>69.230769230769</v>
+        <v>80</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9178,19 +9174,19 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="DG24" t="n">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="DH24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI24" t="n">
         <v>5</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2260848</v>
+        <v>2469444</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9212,179 +9208,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Moritz Jenz</t>
+          <t>Jenson Seelt</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>920525</v>
+        <v>1088897</v>
       </c>
       <c r="E25" t="n">
-        <v>6.6307692307692</v>
+        <v>6.6777777777778</v>
       </c>
       <c r="F25" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>696</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2048</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.05525575</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>514</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>326</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>86.015831134565</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>379</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>236</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>13</v>
       </c>
-      <c r="G25" t="n">
+      <c r="AK25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="n">
         <v>13</v>
       </c>
-      <c r="H25" t="n">
-        <v>1170</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.5445</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1170</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>72</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>62.857142857143</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>72.413793103448</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>56.09756097561</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>61</v>
+      </c>
+      <c r="BH25" t="n">
         <v>5</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.17122004</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>875</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>637</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>89.46629213483099</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>712</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>453</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>184</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>35.185185185185</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>88</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>31</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>59.615384615385</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>37</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>74</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>82</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>17</v>
       </c>
       <c r="BI25" t="n">
         <v>6</v>
@@ -9393,160 +9389,160 @@
         <v>0</v>
       </c>
       <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>17</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>9</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>53</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>17</v>
+      </c>
+      <c r="CD25" t="n">
         <v>5</v>
       </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>29</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>75</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
+      <c r="CE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>16</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>26</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>18</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>38</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>9</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>69.230769230769</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>247</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>132</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI25" t="n">
         <v>5</v>
       </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>31</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>14</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>26</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>34</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>13</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>54</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>18</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>72</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>480</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>232</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>18</v>
-      </c>
-      <c r="DI25" t="n">
-        <v>8</v>
-      </c>
       <c r="DJ25" t="n">
-        <v>2163062</v>
+        <v>2260848</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
@@ -9568,47 +9564,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kilian Fischer</t>
+          <t>Moritz Jenz</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>995316</v>
+        <v>920525</v>
       </c>
       <c r="E26" t="n">
-        <v>6.2909090909091</v>
+        <v>6.65</v>
       </c>
       <c r="F26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n">
-        <v>803</v>
+        <v>1260</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.107</v>
+        <v>0.5445</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9620,13 +9616,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -9641,173 +9637,173 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.32069977</v>
+        <v>0.17388308</v>
       </c>
       <c r="AB26" t="n">
-        <v>576</v>
+        <v>926</v>
       </c>
       <c r="AC26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>668</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>89.304812834225</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>748</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>476</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>192</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU26" t="n">
         <v>3</v>
       </c>
-      <c r="AE26" t="n">
-        <v>294</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>80.547945205479</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>365</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>188</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>106</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>47.619047619048</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT26" t="n">
+      <c r="AV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>72</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>66.05504587156</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>58.928571428571</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>39</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>73.584905660377</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>88</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>31</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>80</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC26" t="n">
         <v>32</v>
       </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>16.666666666667</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>37</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>51.388888888889</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>49.019607843137</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>12</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>57.142857142857</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>115</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>21</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>71</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC26" t="n">
+      <c r="CD26" t="n">
         <v>14</v>
       </c>
-      <c r="CD26" t="n">
-        <v>7</v>
-      </c>
       <c r="CE26" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="CJ26" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="CK26" t="n">
         <v>3</v>
@@ -9848,19 +9844,19 @@
         <v>0</v>
       </c>
       <c r="CR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CS26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CT26" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="CU26" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CV26" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="CW26" t="n">
         <v>0</v>
@@ -9872,13 +9868,13 @@
         <v>0</v>
       </c>
       <c r="CZ26" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="DA26" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="DB26" t="n">
-        <v>60</v>
+        <v>74.07407407407401</v>
       </c>
       <c r="DC26" t="n">
         <v>0</v>
@@ -9890,19 +9886,19 @@
         <v>0</v>
       </c>
       <c r="DF26" t="n">
-        <v>224</v>
+        <v>506</v>
       </c>
       <c r="DG26" t="n">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="DH26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DI26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="DJ26" t="n">
-        <v>2163024</v>
+        <v>2163062</v>
       </c>
       <c r="DK26" t="inlineStr">
         <is>
@@ -9924,23 +9920,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Jan Bürger</t>
+          <t>Kilian Fischer</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1568511</v>
+        <v>995316</v>
       </c>
       <c r="E27" t="n">
-        <v>6.48</v>
+        <v>6.2909090909091</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>198</v>
+        <v>803</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -9949,13 +9945,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0429</v>
+        <v>0.107</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9997,227 +9993,227 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.08158973999999999</v>
+        <v>0.32069977</v>
       </c>
       <c r="AB27" t="n">
-        <v>122</v>
+        <v>576</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
+        <v>294</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>80.547945205479</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>365</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>188</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>106</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>53</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>47.619047619048</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>16.666666666667</v>
+      </c>
+      <c r="BA27" t="n">
         <v>37</v>
       </c>
-      <c r="AF27" t="n">
-        <v>72.54901960784299</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ27" t="n">
+      <c r="BB27" t="n">
+        <v>51.388888888889</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>49.019607843137</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>57.142857142857</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>115</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>11</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>71</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>16</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>35</v>
+      </c>
+      <c r="CV27" t="n">
         <v>9</v>
       </c>
-      <c r="AK27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>9</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>7</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>38.888888888889</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>37</v>
-      </c>
-      <c r="BH27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI27" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO27" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ27" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="BR27" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>14</v>
-      </c>
-      <c r="BU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA27" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB27" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC27" t="n">
-        <v>2</v>
-      </c>
-      <c r="CD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ27" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR27" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS27" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT27" t="n">
-        <v>6</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>15</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>4</v>
-      </c>
       <c r="CW27" t="n">
         <v>0</v>
       </c>
@@ -10228,13 +10224,13 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="DA27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="DB27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="DC27" t="n">
         <v>0</v>
@@ -10246,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="DF27" t="n">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="DG27" t="n">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="DH27" t="n">
         <v>0</v>
@@ -10258,7 +10254,7 @@
         <v>3</v>
       </c>
       <c r="DJ27" t="n">
-        <v>2469446</v>
+        <v>2163024</v>
       </c>
       <c r="DK27" t="inlineStr">
         <is>
@@ -10287,16 +10283,16 @@
         <v>902080</v>
       </c>
       <c r="E28" t="n">
-        <v>7.2428571428571</v>
+        <v>7.2818181818182</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -10353,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.05559553</v>
+        <v>0.06300262</v>
       </c>
       <c r="AB28" t="n">
-        <v>969</v>
+        <v>1007</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -10365,28 +10361,28 @@
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="AF28" t="n">
-        <v>70.954907161804</v>
+        <v>70.731707317073</v>
       </c>
       <c r="AG28" t="n">
-        <v>754</v>
+        <v>779</v>
       </c>
       <c r="AH28" t="n">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AK28" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AL28" t="n">
-        <v>35.02994011976</v>
+        <v>35.344827586207</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
@@ -10404,7 +10400,7 @@
         <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
@@ -10419,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX28" t="n">
         <v>0</v>
@@ -10449,7 +10445,7 @@
         <v>90.90909090909101</v>
       </c>
       <c r="BG28" t="n">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="BH28" t="n">
         <v>0</v>
@@ -10467,28 +10463,28 @@
         <v>0</v>
       </c>
       <c r="BM28" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BN28" t="n">
         <v>1</v>
       </c>
       <c r="BO28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="BP28" t="n">
         <v>3</v>
       </c>
       <c r="BQ28" t="n">
-        <v>152.1</v>
+        <v>160.2</v>
       </c>
       <c r="BR28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS28" t="n">
         <v>0</v>
       </c>
       <c r="BT28" t="n">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="BU28" t="n">
         <v>0</v>
@@ -10530,13 +10526,13 @@
         <v>8</v>
       </c>
       <c r="CH28" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="CI28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CJ28" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="CK28" t="n">
         <v>4</v>
@@ -10584,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="CZ28" t="n">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="DA28" t="n">
         <v>1</v>
@@ -10599,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="DE28" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="DF28" t="n">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="DG28" t="n">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="DH28" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="DI28" t="n">
         <v>0</v>
@@ -10622,7 +10618,7 @@
         </is>
       </c>
       <c r="DL28" t="n">
-        <v>-1.3389</v>
+        <v>0.0609</v>
       </c>
     </row>
   </sheetData>
